--- a/biology/Zoologie/Bothriechis/Bothriechis.xlsx
+++ b/biology/Zoologie/Bothriechis/Bothriechis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothriechis est un genre de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothriechis est un genre de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 11 espèces de ce genre se rencontrent en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 11 espèces de ce genre se rencontrent en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des reptiles arboricoles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des reptiles arboricoles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (03 mars 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (03 mars 2017) :
 Bothriechis aurifer (Salvin, 1860)
 Bothriechis bicolor (Bocourt, 1868)
 Bothriechis guifarroi Townsend, Medina-Flores, Wilson, Jadin &amp; Austin, 2013
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1859 : Über die von Hrn. Dr. Hoffmann in Costa Rica gesammelten und an das Königl. Zoologische Museum gesandten Schlangen. Monatsbericht der Königlich-Preussischen Akademie der Wissenschaften zu Berlin, vol. 1859, p. 275-278 (texte intégral).</t>
         </is>
